--- a/schedule_output.xlsx
+++ b/schedule_output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="185">
   <si>
     <t>Course</t>
   </si>
@@ -50,303 +50,303 @@
     <t>Course_25</t>
   </si>
   <si>
+    <t>Course_37</t>
+  </si>
+  <si>
+    <t>Course_9</t>
+  </si>
+  <si>
     <t>Course_35</t>
   </si>
   <si>
+    <t>Course_49</t>
+  </si>
+  <si>
+    <t>Course_4</t>
+  </si>
+  <si>
+    <t>Course_33</t>
+  </si>
+  <si>
+    <t>Course_34</t>
+  </si>
+  <si>
+    <t>Course_10</t>
+  </si>
+  <si>
+    <t>Course_26</t>
+  </si>
+  <si>
+    <t>Course_48</t>
+  </si>
+  <si>
+    <t>Course_13</t>
+  </si>
+  <si>
+    <t>Course_5</t>
+  </si>
+  <si>
+    <t>Course_23</t>
+  </si>
+  <si>
+    <t>Course_27</t>
+  </si>
+  <si>
+    <t>Course_17</t>
+  </si>
+  <si>
+    <t>Course_42</t>
+  </si>
+  <si>
+    <t>Course_3</t>
+  </si>
+  <si>
     <t>Course_24</t>
   </si>
   <si>
-    <t>Course_17</t>
-  </si>
-  <si>
-    <t>Course_23</t>
+    <t>Course_32</t>
+  </si>
+  <si>
+    <t>Course_31</t>
+  </si>
+  <si>
+    <t>Course_36</t>
+  </si>
+  <si>
+    <t>Course_6</t>
+  </si>
+  <si>
+    <t>Course_29</t>
+  </si>
+  <si>
+    <t>Course_47</t>
+  </si>
+  <si>
+    <t>Course_11</t>
+  </si>
+  <si>
+    <t>Course_8</t>
+  </si>
+  <si>
+    <t>Course_30</t>
+  </si>
+  <si>
+    <t>Course_38</t>
+  </si>
+  <si>
+    <t>Course_2</t>
+  </si>
+  <si>
+    <t>Course_16</t>
+  </si>
+  <si>
+    <t>Course_41</t>
+  </si>
+  <si>
+    <t>Course_44</t>
+  </si>
+  <si>
+    <t>Course_43</t>
+  </si>
+  <si>
+    <t>Course_12</t>
+  </si>
+  <si>
+    <t>Course_39</t>
+  </si>
+  <si>
+    <t>Course_15</t>
+  </si>
+  <si>
+    <t>Course_19</t>
+  </si>
+  <si>
+    <t>Course_50</t>
+  </si>
+  <si>
+    <t>Course_22</t>
+  </si>
+  <si>
+    <t>Course_40</t>
+  </si>
+  <si>
+    <t>Course_21</t>
+  </si>
+  <si>
+    <t>Course_45</t>
+  </si>
+  <si>
+    <t>Course_20</t>
+  </si>
+  <si>
+    <t>Course_28</t>
+  </si>
+  <si>
+    <t>Course_1</t>
+  </si>
+  <si>
+    <t>Course_7</t>
+  </si>
+  <si>
+    <t>Course_18</t>
   </si>
   <si>
     <t>Course_46</t>
   </si>
   <si>
-    <t>Course_12</t>
-  </si>
-  <si>
-    <t>Course_15</t>
-  </si>
-  <si>
-    <t>Course_43</t>
-  </si>
-  <si>
-    <t>Course_5</t>
-  </si>
-  <si>
-    <t>Course_28</t>
-  </si>
-  <si>
-    <t>Course_26</t>
-  </si>
-  <si>
-    <t>Course_37</t>
-  </si>
-  <si>
-    <t>Course_3</t>
-  </si>
-  <si>
-    <t>Course_36</t>
-  </si>
-  <si>
-    <t>Course_42</t>
-  </si>
-  <si>
-    <t>Course_40</t>
-  </si>
-  <si>
-    <t>Course_16</t>
-  </si>
-  <si>
-    <t>Course_33</t>
-  </si>
-  <si>
-    <t>Course_22</t>
-  </si>
-  <si>
-    <t>Course_4</t>
-  </si>
-  <si>
-    <t>Course_10</t>
-  </si>
-  <si>
-    <t>Course_44</t>
-  </si>
-  <si>
-    <t>Course_21</t>
-  </si>
-  <si>
-    <t>Course_31</t>
-  </si>
-  <si>
-    <t>Course_8</t>
-  </si>
-  <si>
-    <t>Course_47</t>
-  </si>
-  <si>
-    <t>Course_48</t>
-  </si>
-  <si>
-    <t>Course_41</t>
-  </si>
-  <si>
-    <t>Course_20</t>
-  </si>
-  <si>
-    <t>Course_38</t>
-  </si>
-  <si>
-    <t>Course_32</t>
-  </si>
-  <si>
-    <t>Course_50</t>
-  </si>
-  <si>
-    <t>Course_7</t>
-  </si>
-  <si>
-    <t>Course_30</t>
-  </si>
-  <si>
-    <t>Course_1</t>
-  </si>
-  <si>
-    <t>Course_45</t>
-  </si>
-  <si>
-    <t>Course_49</t>
-  </si>
-  <si>
-    <t>Course_34</t>
-  </si>
-  <si>
-    <t>Course_11</t>
-  </si>
-  <si>
-    <t>Course_19</t>
-  </si>
-  <si>
     <t>Course_14</t>
   </si>
   <si>
-    <t>Course_18</t>
-  </si>
-  <si>
-    <t>Course_39</t>
-  </si>
-  <si>
-    <t>Course_27</t>
-  </si>
-  <si>
-    <t>Course_6</t>
-  </si>
-  <si>
-    <t>Course_13</t>
-  </si>
-  <si>
-    <t>Course_2</t>
-  </si>
-  <si>
-    <t>Course_9</t>
-  </si>
-  <si>
-    <t>Course_29</t>
-  </si>
-  <si>
     <t>C025</t>
   </si>
   <si>
+    <t>C037</t>
+  </si>
+  <si>
+    <t>C009</t>
+  </si>
+  <si>
     <t>C035</t>
   </si>
   <si>
+    <t>C049</t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
+    <t>C033</t>
+  </si>
+  <si>
+    <t>C034</t>
+  </si>
+  <si>
+    <t>C010</t>
+  </si>
+  <si>
+    <t>C026</t>
+  </si>
+  <si>
+    <t>C048</t>
+  </si>
+  <si>
+    <t>C013</t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t>C023</t>
+  </si>
+  <si>
+    <t>C027</t>
+  </si>
+  <si>
+    <t>C017</t>
+  </si>
+  <si>
+    <t>C042</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
     <t>C024</t>
   </si>
   <si>
-    <t>C017</t>
-  </si>
-  <si>
-    <t>C023</t>
+    <t>C032</t>
+  </si>
+  <si>
+    <t>C031</t>
+  </si>
+  <si>
+    <t>C036</t>
+  </si>
+  <si>
+    <t>C006</t>
+  </si>
+  <si>
+    <t>C029</t>
+  </si>
+  <si>
+    <t>C047</t>
+  </si>
+  <si>
+    <t>C011</t>
+  </si>
+  <si>
+    <t>C008</t>
+  </si>
+  <si>
+    <t>C030</t>
+  </si>
+  <si>
+    <t>C038</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>C016</t>
+  </si>
+  <si>
+    <t>C041</t>
+  </si>
+  <si>
+    <t>C044</t>
+  </si>
+  <si>
+    <t>C043</t>
+  </si>
+  <si>
+    <t>C012</t>
+  </si>
+  <si>
+    <t>C039</t>
+  </si>
+  <si>
+    <t>C015</t>
+  </si>
+  <si>
+    <t>C019</t>
+  </si>
+  <si>
+    <t>C050</t>
+  </si>
+  <si>
+    <t>C022</t>
+  </si>
+  <si>
+    <t>C040</t>
+  </si>
+  <si>
+    <t>C021</t>
+  </si>
+  <si>
+    <t>C045</t>
+  </si>
+  <si>
+    <t>C020</t>
+  </si>
+  <si>
+    <t>C028</t>
+  </si>
+  <si>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>C007</t>
+  </si>
+  <si>
+    <t>C018</t>
   </si>
   <si>
     <t>C046</t>
   </si>
   <si>
-    <t>C012</t>
-  </si>
-  <si>
-    <t>C015</t>
-  </si>
-  <si>
-    <t>C043</t>
-  </si>
-  <si>
-    <t>C005</t>
-  </si>
-  <si>
-    <t>C028</t>
-  </si>
-  <si>
-    <t>C026</t>
-  </si>
-  <si>
-    <t>C037</t>
-  </si>
-  <si>
-    <t>C003</t>
-  </si>
-  <si>
-    <t>C036</t>
-  </si>
-  <si>
-    <t>C042</t>
-  </si>
-  <si>
-    <t>C040</t>
-  </si>
-  <si>
-    <t>C016</t>
-  </si>
-  <si>
-    <t>C033</t>
-  </si>
-  <si>
-    <t>C022</t>
-  </si>
-  <si>
-    <t>C004</t>
-  </si>
-  <si>
-    <t>C010</t>
-  </si>
-  <si>
-    <t>C044</t>
-  </si>
-  <si>
-    <t>C021</t>
-  </si>
-  <si>
-    <t>C031</t>
-  </si>
-  <si>
-    <t>C008</t>
-  </si>
-  <si>
-    <t>C047</t>
-  </si>
-  <si>
-    <t>C048</t>
-  </si>
-  <si>
-    <t>C041</t>
-  </si>
-  <si>
-    <t>C020</t>
-  </si>
-  <si>
-    <t>C038</t>
-  </si>
-  <si>
-    <t>C032</t>
-  </si>
-  <si>
-    <t>C050</t>
-  </si>
-  <si>
-    <t>C007</t>
-  </si>
-  <si>
-    <t>C030</t>
-  </si>
-  <si>
-    <t>C001</t>
-  </si>
-  <si>
-    <t>C045</t>
-  </si>
-  <si>
-    <t>C049</t>
-  </si>
-  <si>
-    <t>C034</t>
-  </si>
-  <si>
-    <t>C011</t>
-  </si>
-  <si>
-    <t>C019</t>
-  </si>
-  <si>
     <t>C014</t>
   </si>
   <si>
-    <t>C018</t>
-  </si>
-  <si>
-    <t>C039</t>
-  </si>
-  <si>
-    <t>C027</t>
-  </si>
-  <si>
-    <t>C006</t>
-  </si>
-  <si>
-    <t>C013</t>
-  </si>
-  <si>
-    <t>C002</t>
-  </si>
-  <si>
-    <t>C009</t>
-  </si>
-  <si>
-    <t>C029</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
@@ -383,183 +383,150 @@
     <t>17.40</t>
   </si>
   <si>
+    <t>Classroom_L</t>
+  </si>
+  <si>
+    <t>Classroom_P</t>
+  </si>
+  <si>
+    <t>Classroom_\</t>
+  </si>
+  <si>
+    <t>Classroom_f</t>
+  </si>
+  <si>
+    <t>Classroom_U</t>
+  </si>
+  <si>
+    <t>Classroom_I</t>
+  </si>
+  <si>
     <t>Classroom_V</t>
   </si>
   <si>
+    <t>Classroom_Q</t>
+  </si>
+  <si>
+    <t>Classroom_d</t>
+  </si>
+  <si>
     <t>Classroom_S</t>
   </si>
   <si>
-    <t>Classroom_P</t>
+    <t>Classroom_H</t>
+  </si>
+  <si>
+    <t>Classroom_X</t>
+  </si>
+  <si>
+    <t>Classroom_e</t>
   </si>
   <si>
     <t>Classroom_A</t>
   </si>
   <si>
-    <t>Classroom_U</t>
-  </si>
-  <si>
-    <t>Classroom_N</t>
-  </si>
-  <si>
-    <t>Classroom_[</t>
-  </si>
-  <si>
-    <t>Classroom_`</t>
+    <t>Classroom_^</t>
+  </si>
+  <si>
+    <t>Classroom_Z</t>
   </si>
   <si>
     <t>Classroom_J</t>
   </si>
   <si>
-    <t>Classroom_f</t>
-  </si>
-  <si>
-    <t>Classroom_C</t>
-  </si>
-  <si>
-    <t>Classroom__</t>
-  </si>
-  <si>
-    <t>Classroom_Y</t>
-  </si>
-  <si>
-    <t>Classroom_e</t>
-  </si>
-  <si>
-    <t>Classroom_M</t>
-  </si>
-  <si>
-    <t>Classroom_I</t>
-  </si>
-  <si>
-    <t>Classroom_B</t>
-  </si>
-  <si>
-    <t>Classroom_T</t>
-  </si>
-  <si>
-    <t>Classroom_G</t>
-  </si>
-  <si>
-    <t>Classroom_d</t>
-  </si>
-  <si>
-    <t>Classroom_R</t>
-  </si>
-  <si>
-    <t>Classroom_Z</t>
-  </si>
-  <si>
-    <t>Classroom_]</t>
-  </si>
-  <si>
-    <t>Classroom_E</t>
-  </si>
-  <si>
-    <t>Classroom_a</t>
-  </si>
-  <si>
-    <t>Classroom_b</t>
-  </si>
-  <si>
-    <t>Classroom_c</t>
+    <t>Instructor_13</t>
+  </si>
+  <si>
+    <t>Instructor_18</t>
+  </si>
+  <si>
+    <t>Instructor_34</t>
+  </si>
+  <si>
+    <t>Instructor_42</t>
+  </si>
+  <si>
+    <t>Instructor_1</t>
+  </si>
+  <si>
+    <t>Instructor_23</t>
+  </si>
+  <si>
+    <t>Instructor_17</t>
+  </si>
+  <si>
+    <t>Instructor_37</t>
+  </si>
+  <si>
+    <t>Instructor_27</t>
+  </si>
+  <si>
+    <t>Instructor_21</t>
+  </si>
+  <si>
+    <t>Instructor_43</t>
+  </si>
+  <si>
+    <t>Instructor_41</t>
+  </si>
+  <si>
+    <t>Instructor_29</t>
+  </si>
+  <si>
+    <t>Instructor_4</t>
+  </si>
+  <si>
+    <t>Instructor_10</t>
+  </si>
+  <si>
+    <t>Instructor_14</t>
+  </si>
+  <si>
+    <t>Instructor_50</t>
+  </si>
+  <si>
+    <t>Instructor_7</t>
+  </si>
+  <si>
+    <t>Instructor_35</t>
+  </si>
+  <si>
+    <t>Instructor_26</t>
+  </si>
+  <si>
+    <t>Instructor_36</t>
+  </si>
+  <si>
+    <t>Instructor_46</t>
+  </si>
+  <si>
+    <t>Instructor_8</t>
+  </si>
+  <si>
+    <t>Instructor_31</t>
+  </si>
+  <si>
+    <t>Instructor_24</t>
+  </si>
+  <si>
+    <t>Instructor_39</t>
+  </si>
+  <si>
+    <t>Instructor_5</t>
+  </si>
+  <si>
+    <t>Instructor_45</t>
+  </si>
+  <si>
+    <t>Instructor_6</t>
+  </si>
+  <si>
+    <t>Instructor_2</t>
   </si>
   <si>
     <t>Instructor_28</t>
   </si>
   <si>
-    <t>Instructor_7</t>
-  </si>
-  <si>
-    <t>Instructor_10</t>
-  </si>
-  <si>
-    <t>Instructor_25</t>
-  </si>
-  <si>
-    <t>Instructor_23</t>
-  </si>
-  <si>
-    <t>Instructor_12</t>
-  </si>
-  <si>
-    <t>Instructor_20</t>
-  </si>
-  <si>
-    <t>Instructor_27</t>
-  </si>
-  <si>
-    <t>Instructor_48</t>
-  </si>
-  <si>
-    <t>Instructor_34</t>
-  </si>
-  <si>
-    <t>Instructor_46</t>
-  </si>
-  <si>
-    <t>Instructor_32</t>
-  </si>
-  <si>
-    <t>Instructor_2</t>
-  </si>
-  <si>
-    <t>Instructor_47</t>
-  </si>
-  <si>
-    <t>Instructor_5</t>
-  </si>
-  <si>
-    <t>Instructor_19</t>
-  </si>
-  <si>
-    <t>Instructor_17</t>
-  </si>
-  <si>
-    <t>Instructor_33</t>
-  </si>
-  <si>
-    <t>Instructor_24</t>
-  </si>
-  <si>
-    <t>Instructor_38</t>
-  </si>
-  <si>
-    <t>Instructor_41</t>
-  </si>
-  <si>
-    <t>Instructor_21</t>
-  </si>
-  <si>
-    <t>Instructor_18</t>
-  </si>
-  <si>
-    <t>Instructor_15</t>
-  </si>
-  <si>
-    <t>Instructor_42</t>
-  </si>
-  <si>
-    <t>Instructor_45</t>
-  </si>
-  <si>
-    <t>Instructor_30</t>
-  </si>
-  <si>
-    <t>Instructor_1</t>
-  </si>
-  <si>
-    <t>Instructor_36</t>
-  </si>
-  <si>
-    <t>Instructor_50</t>
-  </si>
-  <si>
-    <t>Instructor_37</t>
-  </si>
-  <si>
-    <t>Instructor_26</t>
-  </si>
-  <si>
     <t>Metric</t>
   </si>
   <si>
@@ -581,16 +548,28 @@
     <t>Instructor Time Conflicts</t>
   </si>
   <si>
+    <t>Room Double Bookings</t>
+  </si>
+  <si>
     <t>Students Affected by Time Conflicts</t>
   </si>
   <si>
-    <t>0.9041</t>
+    <t>0.9352</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>78</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>135</t>
   </si>
 </sst>
 </file>
@@ -1006,13 +985,13 @@
         <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H2">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="I2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1029,22 +1008,22 @@
         <v>110</v>
       </c>
       <c r="D3">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
         <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H3">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I3">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1061,22 +1040,22 @@
         <v>110</v>
       </c>
       <c r="D4">
-        <v>10.4</v>
+        <v>9.4</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H4">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I4">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1093,22 +1072,22 @@
         <v>110</v>
       </c>
       <c r="D5">
-        <v>11.4</v>
+        <v>10.4</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H5">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1125,22 +1104,22 @@
         <v>110</v>
       </c>
       <c r="D6">
-        <v>12.4</v>
+        <v>10.4</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I6">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1157,22 +1136,22 @@
         <v>110</v>
       </c>
       <c r="D7">
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H7">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I7">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1189,22 +1168,22 @@
         <v>110</v>
       </c>
       <c r="D8">
-        <v>13.4</v>
+        <v>11.4</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1221,22 +1200,22 @@
         <v>110</v>
       </c>
       <c r="D9">
-        <v>14.4</v>
+        <v>12.4</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H9">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I9">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1253,22 +1232,22 @@
         <v>110</v>
       </c>
       <c r="D10">
-        <v>14.4</v>
+        <v>13.4</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H10">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I10">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1282,25 +1261,25 @@
         <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11">
-        <v>8.4</v>
+        <v>13.4</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="H11">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1314,25 +1293,25 @@
         <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12">
-        <v>8.4</v>
+        <v>13.4</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H12">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I12">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1346,25 +1325,25 @@
         <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13">
-        <v>9.4</v>
+        <v>14.4</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H13">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I13">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1381,22 +1360,22 @@
         <v>111</v>
       </c>
       <c r="D14">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
         <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H14">
+        <v>57</v>
+      </c>
+      <c r="I14">
         <v>59</v>
-      </c>
-      <c r="I14">
-        <v>98</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1413,22 +1392,22 @@
         <v>111</v>
       </c>
       <c r="D15">
-        <v>11.4</v>
+        <v>8.4</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H15">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I15">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1445,22 +1424,22 @@
         <v>111</v>
       </c>
       <c r="D16">
-        <v>11.4</v>
+        <v>8.4</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H16">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I16">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1477,22 +1456,22 @@
         <v>111</v>
       </c>
       <c r="D17">
-        <v>12.4</v>
+        <v>9.4</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H17">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I17">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1509,22 +1488,22 @@
         <v>111</v>
       </c>
       <c r="D18">
-        <v>14.4</v>
+        <v>9.4</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H18">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I18">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1538,25 +1517,25 @@
         <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19">
-        <v>8.4</v>
+        <v>10.4</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
         <v>155</v>
       </c>
       <c r="H19">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I19">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1570,25 +1549,25 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20">
-        <v>8.4</v>
+        <v>10.4</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H20">
         <v>60</v>
       </c>
       <c r="I20">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1602,25 +1581,25 @@
         <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21">
-        <v>9.4</v>
+        <v>11.4</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G21" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H21">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I21">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1634,25 +1613,25 @@
         <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22">
-        <v>11.4</v>
+        <v>12.4</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H22">
         <v>70</v>
       </c>
       <c r="I22">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1666,25 +1645,25 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23">
-        <v>12.4</v>
+        <v>13.4</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G23" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="H23">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I23">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1698,25 +1677,25 @@
         <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24">
-        <v>12.4</v>
+        <v>14.4</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="H24">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I24">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1730,25 +1709,25 @@
         <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25">
-        <v>13.4</v>
+        <v>14.4</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="H25">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I25">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1762,28 +1741,28 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26">
-        <v>13.4</v>
+        <v>14.4</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H26">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I26">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1797,22 +1776,22 @@
         <v>112</v>
       </c>
       <c r="D27">
-        <v>14.4</v>
+        <v>8.4</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G27" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H27">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I27">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1826,28 +1805,28 @@
         <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="H28">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I28">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1858,25 +1837,25 @@
         <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G29" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H29">
         <v>58</v>
       </c>
       <c r="I29">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1890,7 +1869,7 @@
         <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D30">
         <v>9.4</v>
@@ -1899,16 +1878,16 @@
         <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H30">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I30">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1922,7 +1901,7 @@
         <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D31">
         <v>10.4</v>
@@ -1931,16 +1910,16 @@
         <v>117</v>
       </c>
       <c r="F31" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G31" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="H31">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I31">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1954,7 +1933,7 @@
         <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32">
         <v>10.4</v>
@@ -1963,16 +1942,16 @@
         <v>117</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G32" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H32">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I32">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1986,7 +1965,7 @@
         <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D33">
         <v>11.4</v>
@@ -1995,16 +1974,16 @@
         <v>118</v>
       </c>
       <c r="F33" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="G33" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="H33">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I33">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2018,7 +1997,7 @@
         <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34">
         <v>11.4</v>
@@ -2027,16 +2006,16 @@
         <v>118</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G34" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H34">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I34">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2050,7 +2029,7 @@
         <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35">
         <v>12.4</v>
@@ -2059,16 +2038,16 @@
         <v>119</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G35" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H35">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="I35">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2082,25 +2061,25 @@
         <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36">
-        <v>12.4</v>
+        <v>14.4</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F36" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H36">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I36">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2114,25 +2093,25 @@
         <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37">
-        <v>13.4</v>
+        <v>14.4</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F37" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G37" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="H37">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I37">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2149,22 +2128,22 @@
         <v>113</v>
       </c>
       <c r="D38">
-        <v>13.4</v>
+        <v>8.4</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G38" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="H38">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I38">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2181,22 +2160,22 @@
         <v>113</v>
       </c>
       <c r="D39">
-        <v>14.4</v>
+        <v>8.4</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F39" t="s">
         <v>122</v>
       </c>
       <c r="G39" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H39">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I39">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2210,25 +2189,25 @@
         <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="E40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F40" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G40" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="H40">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I40">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2242,7 +2221,7 @@
         <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41">
         <v>10.4</v>
@@ -2251,16 +2230,16 @@
         <v>117</v>
       </c>
       <c r="F41" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G41" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H41">
+        <v>50</v>
+      </c>
+      <c r="I41">
         <v>51</v>
-      </c>
-      <c r="I41">
-        <v>82</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2274,25 +2253,25 @@
         <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42">
-        <v>10.4</v>
+        <v>14.4</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F42" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="G42" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H42">
         <v>66</v>
       </c>
       <c r="I42">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2309,22 +2288,22 @@
         <v>114</v>
       </c>
       <c r="D43">
-        <v>11.4</v>
+        <v>9.4</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F43" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="G43" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="H43">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I43">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2341,22 +2320,22 @@
         <v>114</v>
       </c>
       <c r="D44">
-        <v>11.4</v>
+        <v>9.4</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F44" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G44" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H44">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I44">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2373,22 +2352,22 @@
         <v>114</v>
       </c>
       <c r="D45">
-        <v>11.4</v>
+        <v>10.4</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F45" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="G45" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H45">
+        <v>60</v>
+      </c>
+      <c r="I45">
         <v>73</v>
-      </c>
-      <c r="I45">
-        <v>90</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2405,22 +2384,22 @@
         <v>114</v>
       </c>
       <c r="D46">
-        <v>12.4</v>
+        <v>10.4</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F46" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="G46" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="H46">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I46">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2437,22 +2416,22 @@
         <v>114</v>
       </c>
       <c r="D47">
-        <v>13.4</v>
+        <v>11.4</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="G47" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="H47">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I47">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2469,22 +2448,22 @@
         <v>114</v>
       </c>
       <c r="D48">
-        <v>13.4</v>
+        <v>12.4</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F48" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G48" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="H48">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I48">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2501,22 +2480,22 @@
         <v>114</v>
       </c>
       <c r="D49">
-        <v>14.4</v>
+        <v>12.4</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F49" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="G49" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H49">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I49">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2533,22 +2512,22 @@
         <v>114</v>
       </c>
       <c r="D50">
-        <v>14.4</v>
+        <v>13.4</v>
       </c>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F50" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G50" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="H50">
         <v>60</v>
       </c>
       <c r="I50">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2571,16 +2550,16 @@
         <v>121</v>
       </c>
       <c r="F51" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G51" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H51">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I51">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2593,7 +2572,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2601,58 +2580,66 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/schedule_output.xlsx
+++ b/schedule_output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="184">
   <si>
     <t>Course</t>
   </si>
@@ -47,306 +47,306 @@
     <t>Capacity Violation</t>
   </si>
   <si>
+    <t>Course_18</t>
+  </si>
+  <si>
+    <t>Course_48</t>
+  </si>
+  <si>
+    <t>Course_4</t>
+  </si>
+  <si>
+    <t>Course_37</t>
+  </si>
+  <si>
+    <t>Course_31</t>
+  </si>
+  <si>
+    <t>Course_38</t>
+  </si>
+  <si>
+    <t>Course_5</t>
+  </si>
+  <si>
+    <t>Course_8</t>
+  </si>
+  <si>
+    <t>Course_15</t>
+  </si>
+  <si>
+    <t>Course_35</t>
+  </si>
+  <si>
+    <t>Course_11</t>
+  </si>
+  <si>
+    <t>Course_19</t>
+  </si>
+  <si>
+    <t>Course_1</t>
+  </si>
+  <si>
+    <t>Course_49</t>
+  </si>
+  <si>
+    <t>Course_20</t>
+  </si>
+  <si>
+    <t>Course_34</t>
+  </si>
+  <si>
     <t>Course_25</t>
   </si>
   <si>
-    <t>Course_37</t>
+    <t>Course_39</t>
+  </si>
+  <si>
+    <t>Course_42</t>
+  </si>
+  <si>
+    <t>Course_36</t>
+  </si>
+  <si>
+    <t>Course_6</t>
+  </si>
+  <si>
+    <t>Course_40</t>
+  </si>
+  <si>
+    <t>Course_22</t>
+  </si>
+  <si>
+    <t>Course_28</t>
+  </si>
+  <si>
+    <t>Course_32</t>
   </si>
   <si>
     <t>Course_9</t>
   </si>
   <si>
-    <t>Course_35</t>
-  </si>
-  <si>
-    <t>Course_49</t>
-  </si>
-  <si>
-    <t>Course_4</t>
+    <t>Course_50</t>
+  </si>
+  <si>
+    <t>Course_16</t>
+  </si>
+  <si>
+    <t>Course_26</t>
+  </si>
+  <si>
+    <t>Course_45</t>
+  </si>
+  <si>
+    <t>Course_12</t>
+  </si>
+  <si>
+    <t>Course_44</t>
+  </si>
+  <si>
+    <t>Course_23</t>
+  </si>
+  <si>
+    <t>Course_29</t>
+  </si>
+  <si>
+    <t>Course_7</t>
+  </si>
+  <si>
+    <t>Course_47</t>
+  </si>
+  <si>
+    <t>Course_17</t>
+  </si>
+  <si>
+    <t>Course_43</t>
+  </si>
+  <si>
+    <t>Course_13</t>
+  </si>
+  <si>
+    <t>Course_24</t>
+  </si>
+  <si>
+    <t>Course_10</t>
+  </si>
+  <si>
+    <t>Course_21</t>
+  </si>
+  <si>
+    <t>Course_30</t>
   </si>
   <si>
     <t>Course_33</t>
   </si>
   <si>
-    <t>Course_34</t>
-  </si>
-  <si>
-    <t>Course_10</t>
-  </si>
-  <si>
-    <t>Course_26</t>
-  </si>
-  <si>
-    <t>Course_48</t>
-  </si>
-  <si>
-    <t>Course_13</t>
-  </si>
-  <si>
-    <t>Course_5</t>
-  </si>
-  <si>
-    <t>Course_23</t>
+    <t>Course_2</t>
+  </si>
+  <si>
+    <t>Course_14</t>
+  </si>
+  <si>
+    <t>Course_46</t>
+  </si>
+  <si>
+    <t>Course_3</t>
   </si>
   <si>
     <t>Course_27</t>
   </si>
   <si>
-    <t>Course_17</t>
-  </si>
-  <si>
-    <t>Course_42</t>
-  </si>
-  <si>
-    <t>Course_3</t>
-  </si>
-  <si>
-    <t>Course_24</t>
-  </si>
-  <si>
-    <t>Course_32</t>
-  </si>
-  <si>
-    <t>Course_31</t>
-  </si>
-  <si>
-    <t>Course_36</t>
-  </si>
-  <si>
-    <t>Course_6</t>
-  </si>
-  <si>
-    <t>Course_29</t>
-  </si>
-  <si>
-    <t>Course_47</t>
-  </si>
-  <si>
-    <t>Course_11</t>
-  </si>
-  <si>
-    <t>Course_8</t>
-  </si>
-  <si>
-    <t>Course_30</t>
-  </si>
-  <si>
-    <t>Course_38</t>
-  </si>
-  <si>
-    <t>Course_2</t>
-  </si>
-  <si>
-    <t>Course_16</t>
-  </si>
-  <si>
     <t>Course_41</t>
   </si>
   <si>
-    <t>Course_44</t>
-  </si>
-  <si>
-    <t>Course_43</t>
-  </si>
-  <si>
-    <t>Course_12</t>
-  </si>
-  <si>
-    <t>Course_39</t>
-  </si>
-  <si>
-    <t>Course_15</t>
-  </si>
-  <si>
-    <t>Course_19</t>
-  </si>
-  <si>
-    <t>Course_50</t>
-  </si>
-  <si>
-    <t>Course_22</t>
-  </si>
-  <si>
-    <t>Course_40</t>
-  </si>
-  <si>
-    <t>Course_21</t>
-  </si>
-  <si>
-    <t>Course_45</t>
-  </si>
-  <si>
-    <t>Course_20</t>
-  </si>
-  <si>
-    <t>Course_28</t>
-  </si>
-  <si>
-    <t>Course_1</t>
-  </si>
-  <si>
-    <t>Course_7</t>
-  </si>
-  <si>
-    <t>Course_18</t>
-  </si>
-  <si>
-    <t>Course_46</t>
-  </si>
-  <si>
-    <t>Course_14</t>
+    <t>C018</t>
+  </si>
+  <si>
+    <t>C048</t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
+    <t>C037</t>
+  </si>
+  <si>
+    <t>C031</t>
+  </si>
+  <si>
+    <t>C038</t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t>C008</t>
+  </si>
+  <si>
+    <t>C015</t>
+  </si>
+  <si>
+    <t>C035</t>
+  </si>
+  <si>
+    <t>C011</t>
+  </si>
+  <si>
+    <t>C019</t>
+  </si>
+  <si>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>C049</t>
+  </si>
+  <si>
+    <t>C020</t>
+  </si>
+  <si>
+    <t>C034</t>
   </si>
   <si>
     <t>C025</t>
   </si>
   <si>
-    <t>C037</t>
+    <t>C039</t>
+  </si>
+  <si>
+    <t>C042</t>
+  </si>
+  <si>
+    <t>C036</t>
+  </si>
+  <si>
+    <t>C006</t>
+  </si>
+  <si>
+    <t>C040</t>
+  </si>
+  <si>
+    <t>C022</t>
+  </si>
+  <si>
+    <t>C028</t>
+  </si>
+  <si>
+    <t>C032</t>
   </si>
   <si>
     <t>C009</t>
   </si>
   <si>
-    <t>C035</t>
-  </si>
-  <si>
-    <t>C049</t>
-  </si>
-  <si>
-    <t>C004</t>
+    <t>C050</t>
+  </si>
+  <si>
+    <t>C016</t>
+  </si>
+  <si>
+    <t>C026</t>
+  </si>
+  <si>
+    <t>C045</t>
+  </si>
+  <si>
+    <t>C012</t>
+  </si>
+  <si>
+    <t>C044</t>
+  </si>
+  <si>
+    <t>C023</t>
+  </si>
+  <si>
+    <t>C029</t>
+  </si>
+  <si>
+    <t>C007</t>
+  </si>
+  <si>
+    <t>C047</t>
+  </si>
+  <si>
+    <t>C017</t>
+  </si>
+  <si>
+    <t>C043</t>
+  </si>
+  <si>
+    <t>C013</t>
+  </si>
+  <si>
+    <t>C024</t>
+  </si>
+  <si>
+    <t>C010</t>
+  </si>
+  <si>
+    <t>C021</t>
+  </si>
+  <si>
+    <t>C030</t>
   </si>
   <si>
     <t>C033</t>
   </si>
   <si>
-    <t>C034</t>
-  </si>
-  <si>
-    <t>C010</t>
-  </si>
-  <si>
-    <t>C026</t>
-  </si>
-  <si>
-    <t>C048</t>
-  </si>
-  <si>
-    <t>C013</t>
-  </si>
-  <si>
-    <t>C005</t>
-  </si>
-  <si>
-    <t>C023</t>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>C014</t>
+  </si>
+  <si>
+    <t>C046</t>
+  </si>
+  <si>
+    <t>C003</t>
   </si>
   <si>
     <t>C027</t>
   </si>
   <si>
-    <t>C017</t>
-  </si>
-  <si>
-    <t>C042</t>
-  </si>
-  <si>
-    <t>C003</t>
-  </si>
-  <si>
-    <t>C024</t>
-  </si>
-  <si>
-    <t>C032</t>
-  </si>
-  <si>
-    <t>C031</t>
-  </si>
-  <si>
-    <t>C036</t>
-  </si>
-  <si>
-    <t>C006</t>
-  </si>
-  <si>
-    <t>C029</t>
-  </si>
-  <si>
-    <t>C047</t>
-  </si>
-  <si>
-    <t>C011</t>
-  </si>
-  <si>
-    <t>C008</t>
-  </si>
-  <si>
-    <t>C030</t>
-  </si>
-  <si>
-    <t>C038</t>
-  </si>
-  <si>
-    <t>C002</t>
-  </si>
-  <si>
-    <t>C016</t>
-  </si>
-  <si>
     <t>C041</t>
   </si>
   <si>
-    <t>C044</t>
-  </si>
-  <si>
-    <t>C043</t>
-  </si>
-  <si>
-    <t>C012</t>
-  </si>
-  <si>
-    <t>C039</t>
-  </si>
-  <si>
-    <t>C015</t>
-  </si>
-  <si>
-    <t>C019</t>
-  </si>
-  <si>
-    <t>C050</t>
-  </si>
-  <si>
-    <t>C022</t>
-  </si>
-  <si>
-    <t>C040</t>
-  </si>
-  <si>
-    <t>C021</t>
-  </si>
-  <si>
-    <t>C045</t>
-  </si>
-  <si>
-    <t>C020</t>
-  </si>
-  <si>
-    <t>C028</t>
-  </si>
-  <si>
-    <t>C001</t>
-  </si>
-  <si>
-    <t>C007</t>
-  </si>
-  <si>
-    <t>C018</t>
-  </si>
-  <si>
-    <t>C046</t>
-  </si>
-  <si>
-    <t>C014</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
@@ -365,166 +365,172 @@
     <t>11.40</t>
   </si>
   <si>
+    <t>13.40</t>
+  </si>
+  <si>
+    <t>14.40</t>
+  </si>
+  <si>
+    <t>17.40</t>
+  </si>
+  <si>
+    <t>16.40</t>
+  </si>
+  <si>
     <t>12.40</t>
   </si>
   <si>
-    <t>13.40</t>
-  </si>
-  <si>
-    <t>14.40</t>
-  </si>
-  <si>
     <t>15.40</t>
   </si>
   <si>
-    <t>16.40</t>
-  </si>
-  <si>
-    <t>17.40</t>
+    <t>Classroom_K</t>
   </si>
   <si>
     <t>Classroom_L</t>
   </si>
   <si>
+    <t>Classroom_\</t>
+  </si>
+  <si>
     <t>Classroom_P</t>
   </si>
   <si>
-    <t>Classroom_\</t>
-  </si>
-  <si>
     <t>Classroom_f</t>
   </si>
   <si>
+    <t>Classroom_I</t>
+  </si>
+  <si>
+    <t>Classroom_B</t>
+  </si>
+  <si>
+    <t>Classroom_d</t>
+  </si>
+  <si>
+    <t>Classroom_Q</t>
+  </si>
+  <si>
+    <t>Classroom_S</t>
+  </si>
+  <si>
+    <t>Classroom_V</t>
+  </si>
+  <si>
+    <t>Classroom_Z</t>
+  </si>
+  <si>
+    <t>Classroom_A</t>
+  </si>
+  <si>
     <t>Classroom_U</t>
   </si>
   <si>
-    <t>Classroom_I</t>
-  </si>
-  <si>
-    <t>Classroom_V</t>
-  </si>
-  <si>
-    <t>Classroom_Q</t>
-  </si>
-  <si>
-    <t>Classroom_d</t>
-  </si>
-  <si>
-    <t>Classroom_S</t>
-  </si>
-  <si>
-    <t>Classroom_H</t>
-  </si>
-  <si>
-    <t>Classroom_X</t>
+    <t>Classroom_^</t>
+  </si>
+  <si>
+    <t>Classroom_J</t>
+  </si>
+  <si>
+    <t>Classroom_C</t>
+  </si>
+  <si>
+    <t>Classroom_h</t>
   </si>
   <si>
     <t>Classroom_e</t>
   </si>
   <si>
-    <t>Classroom_A</t>
-  </si>
-  <si>
-    <t>Classroom_^</t>
-  </si>
-  <si>
-    <t>Classroom_Z</t>
-  </si>
-  <si>
-    <t>Classroom_J</t>
+    <t>Instructor_27</t>
   </si>
   <si>
     <t>Instructor_13</t>
   </si>
   <si>
+    <t>Instructor_1</t>
+  </si>
+  <si>
+    <t>Instructor_31</t>
+  </si>
+  <si>
+    <t>Instructor_19</t>
+  </si>
+  <si>
+    <t>Instructor_11</t>
+  </si>
+  <si>
+    <t>Instructor_45</t>
+  </si>
+  <si>
+    <t>Instructor_9</t>
+  </si>
+  <si>
+    <t>Instructor_32</t>
+  </si>
+  <si>
+    <t>Instructor_12</t>
+  </si>
+  <si>
+    <t>Instructor_42</t>
+  </si>
+  <si>
+    <t>Instructor_36</t>
+  </si>
+  <si>
+    <t>Instructor_39</t>
+  </si>
+  <si>
+    <t>Instructor_30</t>
+  </si>
+  <si>
     <t>Instructor_18</t>
   </si>
   <si>
+    <t>Instructor_22</t>
+  </si>
+  <si>
+    <t>Instructor_15</t>
+  </si>
+  <si>
+    <t>Instructor_10</t>
+  </si>
+  <si>
+    <t>Instructor_26</t>
+  </si>
+  <si>
+    <t>Instructor_41</t>
+  </si>
+  <si>
+    <t>Instructor_35</t>
+  </si>
+  <si>
+    <t>Instructor_43</t>
+  </si>
+  <si>
+    <t>Instructor_3</t>
+  </si>
+  <si>
+    <t>Instructor_6</t>
+  </si>
+  <si>
+    <t>Instructor_37</t>
+  </si>
+  <si>
+    <t>Instructor_48</t>
+  </si>
+  <si>
+    <t>Instructor_25</t>
+  </si>
+  <si>
+    <t>Instructor_2</t>
+  </si>
+  <si>
     <t>Instructor_34</t>
   </si>
   <si>
-    <t>Instructor_42</t>
-  </si>
-  <si>
-    <t>Instructor_1</t>
-  </si>
-  <si>
-    <t>Instructor_23</t>
-  </si>
-  <si>
-    <t>Instructor_17</t>
-  </si>
-  <si>
-    <t>Instructor_37</t>
-  </si>
-  <si>
-    <t>Instructor_27</t>
-  </si>
-  <si>
-    <t>Instructor_21</t>
-  </si>
-  <si>
-    <t>Instructor_43</t>
-  </si>
-  <si>
-    <t>Instructor_41</t>
-  </si>
-  <si>
-    <t>Instructor_29</t>
-  </si>
-  <si>
-    <t>Instructor_4</t>
-  </si>
-  <si>
-    <t>Instructor_10</t>
-  </si>
-  <si>
-    <t>Instructor_14</t>
-  </si>
-  <si>
-    <t>Instructor_50</t>
-  </si>
-  <si>
-    <t>Instructor_7</t>
-  </si>
-  <si>
-    <t>Instructor_35</t>
-  </si>
-  <si>
-    <t>Instructor_26</t>
-  </si>
-  <si>
-    <t>Instructor_36</t>
-  </si>
-  <si>
-    <t>Instructor_46</t>
-  </si>
-  <si>
-    <t>Instructor_8</t>
-  </si>
-  <si>
-    <t>Instructor_31</t>
-  </si>
-  <si>
-    <t>Instructor_24</t>
-  </si>
-  <si>
-    <t>Instructor_39</t>
-  </si>
-  <si>
-    <t>Instructor_5</t>
-  </si>
-  <si>
-    <t>Instructor_45</t>
-  </si>
-  <si>
-    <t>Instructor_6</t>
-  </si>
-  <si>
-    <t>Instructor_2</t>
-  </si>
-  <si>
-    <t>Instructor_28</t>
+    <t>Instructor_49</t>
+  </si>
+  <si>
+    <t>Instructor_33</t>
   </si>
   <si>
     <t>Metric</t>
@@ -554,22 +560,13 @@
     <t>Students Affected by Time Conflicts</t>
   </si>
   <si>
-    <t>0.9352</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>44</t>
+    <t>0.8869</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>135</t>
+    <t>345</t>
   </si>
 </sst>
 </file>
@@ -985,13 +982,13 @@
         <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1017,13 +1014,13 @@
         <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H3">
+        <v>62</v>
+      </c>
+      <c r="I3">
         <v>73</v>
-      </c>
-      <c r="I3">
-        <v>75</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1040,22 +1037,22 @@
         <v>110</v>
       </c>
       <c r="D4">
-        <v>9.4</v>
+        <v>10.4</v>
       </c>
       <c r="E4" t="s">
         <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H4">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I4">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1075,19 +1072,19 @@
         <v>10.4</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H5">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I5">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1104,19 +1101,19 @@
         <v>110</v>
       </c>
       <c r="D6">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="E6" t="s">
         <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H6">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I6">
         <v>73</v>
@@ -1139,19 +1136,19 @@
         <v>11.4</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H7">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I7">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1168,22 +1165,22 @@
         <v>110</v>
       </c>
       <c r="D8">
-        <v>11.4</v>
+        <v>14.4</v>
       </c>
       <c r="E8" t="s">
         <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H8">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I8">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1200,22 +1197,22 @@
         <v>110</v>
       </c>
       <c r="D9">
-        <v>12.4</v>
+        <v>14.4</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
         <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I9">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1232,22 +1229,22 @@
         <v>110</v>
       </c>
       <c r="D10">
-        <v>13.4</v>
+        <v>14.4</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H10">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I10">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1264,22 +1261,22 @@
         <v>110</v>
       </c>
       <c r="D11">
-        <v>13.4</v>
+        <v>14.4</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="I11">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1293,25 +1290,25 @@
         <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D12">
-        <v>13.4</v>
+        <v>8.4</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H12">
         <v>62</v>
       </c>
       <c r="I12">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1325,22 +1322,22 @@
         <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D13">
-        <v>14.4</v>
+        <v>8.4</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H13">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I13">
         <v>73</v>
@@ -1360,22 +1357,22 @@
         <v>111</v>
       </c>
       <c r="D14">
-        <v>8.4</v>
+        <v>11.4</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H14">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I14">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1392,19 +1389,19 @@
         <v>111</v>
       </c>
       <c r="D15">
-        <v>8.4</v>
+        <v>11.4</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H15">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I15">
         <v>73</v>
@@ -1424,22 +1421,22 @@
         <v>111</v>
       </c>
       <c r="D16">
-        <v>8.4</v>
+        <v>14.4</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H16">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I16">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1456,19 +1453,19 @@
         <v>111</v>
       </c>
       <c r="D17">
-        <v>9.4</v>
+        <v>14.4</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H17">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I17">
         <v>73</v>
@@ -1485,25 +1482,25 @@
         <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D18">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H18">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I18">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1517,25 +1514,25 @@
         <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D19">
-        <v>10.4</v>
+        <v>8.4</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H19">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I19">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1549,25 +1546,25 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D20">
-        <v>10.4</v>
+        <v>8.4</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F20" t="s">
         <v>130</v>
       </c>
       <c r="G20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H20">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I20">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1581,25 +1578,25 @@
         <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D21">
-        <v>11.4</v>
+        <v>10.4</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H21">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I21">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1613,25 +1610,25 @@
         <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D22">
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="H22">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I22">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1645,25 +1642,25 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23">
-        <v>13.4</v>
+        <v>11.4</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H23">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I23">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1677,25 +1674,25 @@
         <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D24">
-        <v>14.4</v>
+        <v>13.4</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="I24">
         <v>51</v>
-      </c>
-      <c r="I24">
-        <v>52</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1709,25 +1706,25 @@
         <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D25">
         <v>14.4</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="H25">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I25">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1741,28 +1738,28 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D26">
         <v>14.4</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H26">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I26">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J26">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1773,7 +1770,7 @@
         <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27">
         <v>8.4</v>
@@ -1782,16 +1779,16 @@
         <v>115</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H27">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I27">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1805,28 +1802,28 @@
         <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D28">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="H28">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I28">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J28">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1837,25 +1834,25 @@
         <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D29">
         <v>9.4</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H29">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I29">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1869,25 +1866,25 @@
         <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D30">
         <v>9.4</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H30">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I30">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1901,25 +1898,25 @@
         <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D31">
-        <v>10.4</v>
+        <v>9.4</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G31" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H31">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I31">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1933,25 +1930,25 @@
         <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D32">
         <v>10.4</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H32">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I32">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1965,25 +1962,25 @@
         <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D33">
-        <v>11.4</v>
+        <v>10.4</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="G33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H33">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I33">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1997,25 +1994,25 @@
         <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34">
         <v>11.4</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F34" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G34" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="H34">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I34">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2029,25 +2026,25 @@
         <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35">
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F35" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G35" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="H35">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I35">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2061,25 +2058,25 @@
         <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36">
-        <v>14.4</v>
+        <v>13.4</v>
       </c>
       <c r="E36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G36" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="H36">
         <v>56</v>
       </c>
       <c r="I36">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2093,22 +2090,22 @@
         <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37">
-        <v>14.4</v>
+        <v>13.4</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F37" t="s">
         <v>124</v>
       </c>
       <c r="G37" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H37">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I37">
         <v>61</v>
@@ -2128,22 +2125,22 @@
         <v>113</v>
       </c>
       <c r="D38">
-        <v>8.4</v>
+        <v>14.4</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="H38">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I38">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2160,22 +2157,22 @@
         <v>113</v>
       </c>
       <c r="D39">
-        <v>8.4</v>
+        <v>14.4</v>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F39" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G39" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="H39">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I39">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2189,25 +2186,25 @@
         <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D40">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="G40" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H40">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I40">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2221,25 +2218,25 @@
         <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D41">
-        <v>10.4</v>
+        <v>8.4</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F41" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G41" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="H41">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I41">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2253,25 +2250,25 @@
         <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D42">
-        <v>14.4</v>
+        <v>9.4</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F42" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G42" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="H42">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I42">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2288,16 +2285,16 @@
         <v>114</v>
       </c>
       <c r="D43">
-        <v>9.4</v>
+        <v>11.4</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G43" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="H43">
         <v>64</v>
@@ -2320,22 +2317,22 @@
         <v>114</v>
       </c>
       <c r="D44">
-        <v>9.4</v>
+        <v>11.4</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F44" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G44" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H44">
         <v>58</v>
       </c>
       <c r="I44">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2352,22 +2349,22 @@
         <v>114</v>
       </c>
       <c r="D45">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="E45" t="s">
         <v>117</v>
       </c>
       <c r="F45" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="G45" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H45">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I45">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2384,22 +2381,22 @@
         <v>114</v>
       </c>
       <c r="D46">
-        <v>10.4</v>
+        <v>12.4</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F46" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G46" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="H46">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I46">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2416,22 +2413,22 @@
         <v>114</v>
       </c>
       <c r="D47">
-        <v>11.4</v>
+        <v>13.4</v>
       </c>
       <c r="E47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G47" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="H47">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I47">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2448,22 +2445,22 @@
         <v>114</v>
       </c>
       <c r="D48">
-        <v>12.4</v>
+        <v>13.4</v>
       </c>
       <c r="E48" t="s">
         <v>119</v>
       </c>
       <c r="F48" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="G48" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="H48">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I48">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2480,22 +2477,22 @@
         <v>114</v>
       </c>
       <c r="D49">
-        <v>12.4</v>
+        <v>14.4</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F49" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="G49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H49">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I49">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2512,22 +2509,22 @@
         <v>114</v>
       </c>
       <c r="D50">
-        <v>13.4</v>
+        <v>14.4</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F50" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G50" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="H50">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I50">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2547,19 +2544,19 @@
         <v>14.4</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F51" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G51" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="H51">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I51">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2580,39 +2577,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
         <v>182</v>
@@ -2620,7 +2617,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
         <v>182</v>
@@ -2628,18 +2625,18 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
